--- a/post-covid-outcome-tracker.xlsx
+++ b/post-covid-outcome-tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ee15592\Documents\post-covid-renal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C56339-92E2-46FF-A1E2-7A9DB5060C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25607D83-3BA7-493D-97CC-6B3C2B7D719A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29550" yWindow="2970" windowWidth="21600" windowHeight="11385" firstSheet="8" activeTab="11" xr2:uid="{CFDC78FF-731B-C941-9E04-4E96C637B196}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="11" xr2:uid="{CFDC78FF-731B-C941-9E04-4E96C637B196}"/>
   </bookViews>
   <sheets>
     <sheet name="cardiovascular" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14779" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14849" uniqueCount="221">
   <si>
     <t>outcome</t>
   </si>
@@ -745,6 +745,15 @@
   </si>
   <si>
     <t>esrd</t>
+  </si>
+  <si>
+    <t>ckd_group</t>
+  </si>
+  <si>
+    <t>gen</t>
+  </si>
+  <si>
+    <t>ckd_hist</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -1850,15 +1859,366 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="548">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF4472C4"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD9E1F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF4472C4"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD9E1F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF4472C4"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD9E1F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF4472C4"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD9E1F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF4472C4"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD9E1F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF4472C4"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD9E1F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF4472C4"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD9E1F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF4472C4"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD9E1F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1951,106 +2311,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF4472C4"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD9E1F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF4472C4"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD9E1F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF4472C4"/>
       </font>
       <fill>
@@ -2066,256 +2326,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF4472C4"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD9E1F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF4472C4"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD9E1F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF4472C4"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD9E1F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF4472C4"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD9E1F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF4472C4"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD9E1F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF4472C4"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD9E1F2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3032,21 +3042,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3082,26 +3092,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -3117,116 +3107,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3282,6 +3162,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -3292,11 +3182,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3322,6 +3212,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3342,11 +3242,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3362,11 +3262,961 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3442,216 +4292,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3667,836 +4307,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4562,26 +4372,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -4597,146 +4387,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4832,6 +4482,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -4847,26 +4507,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4922,11 +4562,231 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4992,11 +4852,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5022,11 +4882,171 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5092,36 +5112,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -5137,246 +5127,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5432,6 +5182,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -5447,16 +5207,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5512,71 +5262,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5612,71 +5302,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5757,6 +5387,376 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5892,36 +5892,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -5967,926 +5937,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7022,6 +6072,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -7042,11 +6112,891 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7122,31 +7072,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7192,21 +7132,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7222,11 +7152,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7272,6 +7202,96 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -7292,16 +7312,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -7312,11 +7322,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7723,155 +7733,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="157" t="s">
+      <c r="C1" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="157" t="s">
+      <c r="D1" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157" t="s">
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157" t="s">
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157" t="s">
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="157"/>
-      <c r="O1" s="157"/>
-      <c r="P1" s="157" t="s">
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157" t="s">
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="157"/>
-      <c r="U1" s="157"/>
-      <c r="V1" s="157" t="s">
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="157"/>
-      <c r="X1" s="157"/>
-      <c r="Y1" s="157" t="s">
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="157"/>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="157" t="s">
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="158"/>
+      <c r="AB1" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="157"/>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157" t="s">
+      <c r="AC1" s="158"/>
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="AF1" s="157"/>
-      <c r="AG1" s="157"/>
-      <c r="AH1" s="157" t="s">
+      <c r="AF1" s="158"/>
+      <c r="AG1" s="158"/>
+      <c r="AH1" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="AI1" s="157"/>
-      <c r="AJ1" s="157"/>
-      <c r="AK1" s="157" t="s">
+      <c r="AI1" s="158"/>
+      <c r="AJ1" s="158"/>
+      <c r="AK1" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="157"/>
-      <c r="AM1" s="157"/>
-      <c r="AN1" s="157" t="s">
+      <c r="AL1" s="158"/>
+      <c r="AM1" s="158"/>
+      <c r="AN1" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="AO1" s="157"/>
-      <c r="AP1" s="157"/>
-      <c r="AQ1" s="157" t="s">
+      <c r="AO1" s="158"/>
+      <c r="AP1" s="158"/>
+      <c r="AQ1" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="AR1" s="157"/>
-      <c r="AS1" s="157"/>
-      <c r="AT1" s="157" t="s">
+      <c r="AR1" s="158"/>
+      <c r="AS1" s="158"/>
+      <c r="AT1" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="AU1" s="157"/>
-      <c r="AV1" s="157"/>
-      <c r="AW1" s="157" t="s">
+      <c r="AU1" s="158"/>
+      <c r="AV1" s="158"/>
+      <c r="AW1" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="AX1" s="157"/>
-      <c r="AY1" s="157"/>
-      <c r="AZ1" s="157" t="s">
+      <c r="AX1" s="158"/>
+      <c r="AY1" s="158"/>
+      <c r="AZ1" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="157"/>
-      <c r="BB1" s="157"/>
-      <c r="BC1" s="157" t="s">
+      <c r="BA1" s="158"/>
+      <c r="BB1" s="158"/>
+      <c r="BC1" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="BD1" s="157"/>
-      <c r="BE1" s="157"/>
-      <c r="BF1" s="157" t="s">
+      <c r="BD1" s="158"/>
+      <c r="BE1" s="158"/>
+      <c r="BF1" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="BG1" s="157"/>
-      <c r="BH1" s="157"/>
-      <c r="BI1" s="157" t="s">
+      <c r="BG1" s="158"/>
+      <c r="BH1" s="158"/>
+      <c r="BI1" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="BJ1" s="157"/>
-      <c r="BK1" s="157"/>
-      <c r="BL1" s="157" t="s">
+      <c r="BJ1" s="158"/>
+      <c r="BK1" s="158"/>
+      <c r="BL1" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="BM1" s="157"/>
-      <c r="BN1" s="157"/>
-      <c r="BO1" s="157" t="s">
+      <c r="BM1" s="158"/>
+      <c r="BN1" s="158"/>
+      <c r="BO1" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="BP1" s="157"/>
-      <c r="BQ1" s="157"/>
-      <c r="BR1" s="157" t="s">
+      <c r="BP1" s="158"/>
+      <c r="BQ1" s="158"/>
+      <c r="BR1" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="BS1" s="157"/>
-      <c r="BT1" s="157"/>
-      <c r="BU1" s="157" t="s">
+      <c r="BS1" s="158"/>
+      <c r="BT1" s="158"/>
+      <c r="BU1" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="BV1" s="157"/>
-      <c r="BW1" s="157"/>
-      <c r="BX1" s="157" t="s">
+      <c r="BV1" s="158"/>
+      <c r="BW1" s="158"/>
+      <c r="BX1" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="BY1" s="157"/>
-      <c r="BZ1" s="157"/>
-      <c r="CA1" s="157" t="s">
+      <c r="BY1" s="158"/>
+      <c r="BZ1" s="158"/>
+      <c r="CA1" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="CB1" s="157"/>
-      <c r="CC1" s="157"/>
-      <c r="CD1" s="157" t="s">
+      <c r="CB1" s="158"/>
+      <c r="CC1" s="158"/>
+      <c r="CD1" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="CE1" s="157"/>
-      <c r="CF1" s="157"/>
-      <c r="CG1" s="157" t="s">
+      <c r="CE1" s="158"/>
+      <c r="CF1" s="158"/>
+      <c r="CG1" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="CH1" s="157"/>
-      <c r="CI1" s="157"/>
+      <c r="CH1" s="158"/>
+      <c r="CI1" s="158"/>
       <c r="CK1" s="6" t="s">
         <v>31</v>
       </c>
@@ -7881,9 +7891,9 @@
       </c>
     </row>
     <row r="2" spans="1:90" s="7" customFormat="1" ht="84.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="157"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
       <c r="D2" s="7" t="s">
         <v>32</v>
       </c>
@@ -30160,11 +30170,17 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AW1:AY1"/>
-    <mergeCell ref="AZ1:BB1"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="CG1:CI1"/>
+    <mergeCell ref="BC1:BE1"/>
+    <mergeCell ref="BF1:BH1"/>
+    <mergeCell ref="BI1:BK1"/>
+    <mergeCell ref="BL1:BN1"/>
+    <mergeCell ref="BO1:BQ1"/>
+    <mergeCell ref="CA1:CC1"/>
+    <mergeCell ref="BR1:BT1"/>
+    <mergeCell ref="BU1:BW1"/>
+    <mergeCell ref="BX1:BZ1"/>
+    <mergeCell ref="CD1:CF1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -30180,38 +30196,32 @@
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
-    <mergeCell ref="CG1:CI1"/>
-    <mergeCell ref="BC1:BE1"/>
-    <mergeCell ref="BF1:BH1"/>
-    <mergeCell ref="BI1:BK1"/>
-    <mergeCell ref="BL1:BN1"/>
-    <mergeCell ref="BO1:BQ1"/>
-    <mergeCell ref="CA1:CC1"/>
-    <mergeCell ref="BR1:BT1"/>
-    <mergeCell ref="BU1:BW1"/>
-    <mergeCell ref="BX1:BZ1"/>
-    <mergeCell ref="CD1:CF1"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AV1"/>
   </mergeCells>
   <conditionalFormatting sqref="D25:F25">
     <cfRule type="containsText" dxfId="547" priority="750" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="546" priority="753" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",D25)))</formula>
+    <cfRule type="containsText" dxfId="546" priority="751" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",D25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="545" priority="752" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="544" priority="751" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",D25)))</formula>
+    <cfRule type="containsText" dxfId="544" priority="753" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",D25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:F31 J30:L31">
-    <cfRule type="containsText" dxfId="543" priority="853" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="543" priority="852" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",D30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="542" priority="853" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="542" priority="852" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",D30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:F32">
@@ -30229,45 +30239,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:F45">
-    <cfRule type="containsText" dxfId="537" priority="119" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="537" priority="117" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",D45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="536" priority="118" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",D45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="535" priority="119" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",D45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="536" priority="117" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",D45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="535" priority="120" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="534" priority="120" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",D45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="534" priority="118" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",D45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:F51 J51:AM51">
-    <cfRule type="containsText" dxfId="533" priority="140" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="532" priority="137" operator="containsText" text="Reduced">
+    <cfRule type="containsText" dxfId="533" priority="137" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",D51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="531" priority="138" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="532" priority="138" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",D51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="530" priority="139" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="531" priority="139" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="530" priority="140" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",D51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:F59">
     <cfRule type="containsText" dxfId="529" priority="602" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",D59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="528" priority="604" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="528" priority="603" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",D59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="527" priority="604" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",D59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="527" priority="605" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="526" priority="605" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",D59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="526" priority="603" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",D59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86:F86">
@@ -30285,25 +30295,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:F92 J91:L91">
-    <cfRule type="containsText" dxfId="521" priority="419" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="521" priority="418" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",D91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="520" priority="419" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",D91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="520" priority="418" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",D91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:F92">
-    <cfRule type="containsText" dxfId="519" priority="241" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",D91)))</formula>
+    <cfRule type="containsText" dxfId="519" priority="238" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",D91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="518" priority="238" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",D91)))</formula>
+    <cfRule type="containsText" dxfId="518" priority="239" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",D91)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="517" priority="240" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",D91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="516" priority="239" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",D91)))</formula>
+    <cfRule type="containsText" dxfId="516" priority="241" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",D91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:I22">
@@ -30321,11 +30331,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:I42">
-    <cfRule type="containsText" dxfId="511" priority="46" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="511" priority="45" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",D42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="510" priority="46" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",D42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="510" priority="45" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",D42)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="509" priority="47" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",D42)))</formula>
@@ -30349,101 +30359,101 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:L13 G14:I27">
-    <cfRule type="containsText" dxfId="503" priority="873" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",D13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="502" priority="870" operator="containsText" text="Reduced">
+    <cfRule type="containsText" dxfId="503" priority="870" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="501" priority="871" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="502" priority="871" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="500" priority="872" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="501" priority="872" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",D13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="500" priority="873" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:L14">
-    <cfRule type="containsText" dxfId="499" priority="697" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",D14)))</formula>
+    <cfRule type="containsText" dxfId="499" priority="694" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",D14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="498" priority="696" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="498" priority="695" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",D14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="497" priority="696" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",D14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="497" priority="695" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="496" priority="694" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",D14)))</formula>
+    <cfRule type="containsText" dxfId="496" priority="697" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",D14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:L20">
-    <cfRule type="containsText" dxfId="495" priority="857" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",D20)))</formula>
+    <cfRule type="containsText" dxfId="495" priority="854" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="494" priority="856" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="494" priority="855" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",D20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="493" priority="856" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="493" priority="855" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",D20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="492" priority="854" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",D20)))</formula>
+    <cfRule type="containsText" dxfId="492" priority="857" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:L25">
-    <cfRule type="containsText" dxfId="491" priority="693" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",D24)))</formula>
+    <cfRule type="containsText" dxfId="491" priority="690" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="490" priority="692" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="490" priority="691" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",D24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="489" priority="692" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="489" priority="691" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",D24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="488" priority="690" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",D24)))</formula>
+    <cfRule type="containsText" dxfId="488" priority="693" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",D24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:L26">
-    <cfRule type="containsText" dxfId="487" priority="709" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",D26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="486" priority="706" operator="containsText" text="Reduced">
+    <cfRule type="containsText" dxfId="487" priority="706" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",D26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="485" priority="707" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="486" priority="707" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",D26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="484" priority="708" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="485" priority="708" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="484" priority="709" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",D26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:L27 D28:F28 J28:L28">
-    <cfRule type="containsText" dxfId="483" priority="681" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",D27)))</formula>
+    <cfRule type="containsText" dxfId="483" priority="678" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="482" priority="680" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="482" priority="679" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",D27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="481" priority="680" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="481" priority="678" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",D27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="480" priority="679" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",D27)))</formula>
+    <cfRule type="containsText" dxfId="480" priority="681" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:L29">
-    <cfRule type="containsText" dxfId="479" priority="685" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",D28)))</formula>
+    <cfRule type="containsText" dxfId="479" priority="682" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",D28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="478" priority="684" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="478" priority="683" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",D28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="477" priority="684" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",D28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="477" priority="682" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",D28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="476" priority="683" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",D28)))</formula>
+    <cfRule type="containsText" dxfId="476" priority="685" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",D28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:L33 G34:I47">
@@ -30453,53 +30463,53 @@
     <cfRule type="containsText" dxfId="474" priority="222" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",D33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="473" priority="224" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="473" priority="223" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",D33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="472" priority="224" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",D33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="472" priority="223" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",D33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:L34">
-    <cfRule type="containsText" dxfId="471" priority="71" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="470" priority="69" operator="containsText" text="Reduced">
+    <cfRule type="containsText" dxfId="471" priority="69" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="469" priority="70" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="470" priority="70" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",D34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="469" priority="71" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",D34)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="468" priority="72" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:L40">
-    <cfRule type="containsText" dxfId="467" priority="211" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",D40)))</formula>
+    <cfRule type="containsText" dxfId="467" priority="209" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",D40)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="466" priority="210" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="465" priority="209" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",D40)))</formula>
+    <cfRule type="containsText" dxfId="465" priority="211" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",D40)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="464" priority="212" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",D40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:L45">
-    <cfRule type="containsText" dxfId="463" priority="68" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",D44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="462" priority="65" operator="containsText" text="Reduced">
+    <cfRule type="containsText" dxfId="463" priority="65" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",D44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="461" priority="66" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="462" priority="66" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",D44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="460" priority="67" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="461" priority="67" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",D44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="460" priority="68" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",D44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:L46">
@@ -30534,14 +30544,14 @@
     <cfRule type="containsText" dxfId="451" priority="57" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="450" priority="59" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="450" priority="58" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",D48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="449" priority="59" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="449" priority="60" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="448" priority="60" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="448" priority="58" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73:L75">
@@ -30559,45 +30569,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:O23">
-    <cfRule type="containsText" dxfId="443" priority="861" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",D23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="442" priority="858" operator="containsText" text="Reduced">
+    <cfRule type="containsText" dxfId="443" priority="858" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="441" priority="859" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="442" priority="859" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="440" priority="860" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="441" priority="860" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",D23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="440" priority="861" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:O43">
-    <cfRule type="containsText" dxfId="439" priority="214" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="439" priority="213" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",D43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="438" priority="214" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",D43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="438" priority="213" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",D43)))</formula>
+    <cfRule type="containsText" dxfId="437" priority="215" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",D43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="437" priority="216" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="436" priority="216" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",D43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="436" priority="215" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",D43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:O85">
     <cfRule type="containsText" dxfId="435" priority="514" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",D83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="434" priority="517" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",D83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="433" priority="515" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="434" priority="515" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",D83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="432" priority="516" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="433" priority="516" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",D83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="432" priority="517" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",D83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:O88 G89:I89 M89:O89">
@@ -30607,11 +30617,11 @@
     <cfRule type="containsText" dxfId="430" priority="611" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",D87)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="429" priority="613" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="429" priority="612" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",D87)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="428" priority="613" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",D87)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="428" priority="612" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",D87)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88:O88 G89:I89 M89:O89">
@@ -30626,36 +30636,36 @@
     <cfRule type="containsText" dxfId="425" priority="562" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",D90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="424" priority="564" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="424" priority="563" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",D90)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="423" priority="564" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",D90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="423" priority="565" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="422" priority="565" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",D90)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="422" priority="563" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",D90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:BB52 CJ3:CJ91 BC13:BZ91 D57:BB90 J91:BB91 J92:O92 AE92:AG92 AK92:AY92 D91:I92 BC3:CI12">
-    <cfRule type="containsText" dxfId="421" priority="875" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="421" priority="874" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="420" priority="875" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",D3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="420" priority="874" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:BZ15 CJ15">
-    <cfRule type="containsText" dxfId="419" priority="725" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",D15)))</formula>
+    <cfRule type="containsText" dxfId="419" priority="722" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="418" priority="724" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="418" priority="723" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",D15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="417" priority="724" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="417" priority="723" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",D15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="416" priority="722" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",D15)))</formula>
+    <cfRule type="containsText" dxfId="416" priority="725" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",D15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:BZ19">
@@ -30665,11 +30675,11 @@
     <cfRule type="containsText" dxfId="414" priority="735" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="413" priority="737" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="413" priority="736" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",D16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="412" priority="737" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",D16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="412" priority="736" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:BZ21 CJ21">
@@ -30701,47 +30711,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:BZ39">
-    <cfRule type="containsText" dxfId="403" priority="102" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="403" priority="101" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="402" priority="102" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",D36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="402" priority="103" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="401" priority="103" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",D36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="401" priority="104" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="400" priority="104" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",D36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="400" priority="101" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",D36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:BZ41 CJ41">
-    <cfRule type="containsText" dxfId="399" priority="150" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="399" priority="149" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",D41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="398" priority="150" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="398" priority="151" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="397" priority="151" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="397" priority="152" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="396" priority="152" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",D41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="396" priority="149" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:I27 G13:L13">
-    <cfRule type="containsText" dxfId="395" priority="867" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="395" priority="866" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",G13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="394" priority="867" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",G13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="394" priority="866" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",G13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:I26 M24:O29">
-    <cfRule type="containsText" dxfId="393" priority="779" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="393" priority="778" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",G24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="392" priority="779" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",G24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="392" priority="778" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",G24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:I32">
@@ -30775,14 +30785,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71:I71">
-    <cfRule type="containsText" dxfId="383" priority="384" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",G71)))</formula>
+    <cfRule type="containsText" dxfId="383" priority="382" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",G71)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="382" priority="383" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",G71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="381" priority="382" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",G71)))</formula>
+    <cfRule type="containsText" dxfId="381" priority="384" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",G71)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="380" priority="385" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",G71)))</formula>
@@ -30792,14 +30802,14 @@
     <cfRule type="containsText" dxfId="379" priority="510" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",G85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="378" priority="513" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",G85)))</formula>
+    <cfRule type="containsText" dxfId="378" priority="511" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",G85)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="377" priority="512" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",G85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="376" priority="511" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",G85)))</formula>
+    <cfRule type="containsText" dxfId="376" priority="513" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",G85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89:I89 M89:O89 D88:O88">
@@ -30811,14 +30821,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89:I89">
-    <cfRule type="containsText" dxfId="373" priority="576" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",G89)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="372" priority="574" operator="containsText" text="Reduced">
+    <cfRule type="containsText" dxfId="373" priority="574" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",G89)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="371" priority="575" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="372" priority="575" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",G89)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="371" priority="576" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",G89)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="370" priority="577" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",G89)))</formula>
@@ -30833,11 +30843,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:L33 G34:I47">
-    <cfRule type="containsText" dxfId="367" priority="220" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="367" priority="219" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",G33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="366" priority="220" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",G33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="366" priority="219" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",G33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53:BB56">
@@ -30855,25 +30865,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59:O59 H60:I66">
-    <cfRule type="containsText" dxfId="361" priority="599" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="361" priority="598" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",H59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="360" priority="599" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",H59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="360" priority="601" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="359" priority="600" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",H59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="358" priority="601" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",H59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="359" priority="598" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",H59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="358" priority="600" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",H59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:L22">
-    <cfRule type="containsText" dxfId="357" priority="667" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="357" priority="666" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",J21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="356" priority="667" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",J21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="356" priority="666" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",J21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="355" priority="668" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",J21)))</formula>
@@ -30886,196 +30896,196 @@
     <cfRule type="containsText" dxfId="353" priority="702" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",J25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="352" priority="705" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",J25)))</formula>
+    <cfRule type="containsText" dxfId="352" priority="703" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",J25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="351" priority="704" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",J25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="350" priority="703" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",J25)))</formula>
+    <cfRule type="containsText" dxfId="350" priority="705" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",J25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:L31 D30:F31">
-    <cfRule type="containsText" dxfId="349" priority="851" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="349" priority="850" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",D30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="348" priority="851" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",D30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="348" priority="850" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",D30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:L42">
-    <cfRule type="containsText" dxfId="347" priority="44" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",J41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="346" priority="41" operator="containsText" text="Reduced">
+    <cfRule type="containsText" dxfId="347" priority="41" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",J41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="345" priority="42" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="346" priority="42" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",J41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="344" priority="43" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="345" priority="43" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",J41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="344" priority="44" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",J41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:L46">
-    <cfRule type="containsText" dxfId="343" priority="79" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="343" priority="77" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",J45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="342" priority="78" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",J45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="341" priority="79" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",J45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="342" priority="80" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="340" priority="80" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",J45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="341" priority="78" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",J45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="340" priority="77" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",J45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50:L51 D50:I56">
-    <cfRule type="containsText" dxfId="339" priority="208" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",D50)))</formula>
+    <cfRule type="containsText" dxfId="339" priority="205" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",D50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="338" priority="207" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="338" priority="206" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="337" priority="207" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",D50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="337" priority="206" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="336" priority="205" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",D50)))</formula>
+    <cfRule type="containsText" dxfId="336" priority="208" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",D50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75:L76">
-    <cfRule type="containsText" dxfId="335" priority="387" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="335" priority="386" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",J75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="334" priority="387" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",J75)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="389" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",J75)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="333" priority="388" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",J75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="332" priority="386" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",J75)))</formula>
+    <cfRule type="containsText" dxfId="332" priority="389" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",J75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J86:L86">
-    <cfRule type="containsText" dxfId="331" priority="377" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="331" priority="374" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",J86)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="330" priority="375" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",J86)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="329" priority="376" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",J86)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="328" priority="377" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",J86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="330" priority="376" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",J86)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="329" priority="375" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",J86)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="328" priority="374" operator="containsText" text="Reduced">
+    <cfRule type="containsText" dxfId="327" priority="498" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",J86)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="327" priority="500" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",J86)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="326" priority="499" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",J86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="325" priority="498" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",J86)))</formula>
+    <cfRule type="containsText" dxfId="325" priority="500" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",J86)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="324" priority="501" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",J86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91:L91 D91:F92">
-    <cfRule type="containsText" dxfId="323" priority="421" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="323" priority="420" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",D91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="322" priority="421" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",D91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="322" priority="420" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",D91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91:L92">
-    <cfRule type="containsText" dxfId="321" priority="237" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",J91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="320" priority="234" operator="containsText" text="Reduced">
+    <cfRule type="containsText" dxfId="321" priority="234" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",J91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="319" priority="235" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="320" priority="235" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",J91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="318" priority="236" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="319" priority="236" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",J91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="318" priority="237" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",J91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:O32 J52:O52">
-    <cfRule type="containsText" dxfId="317" priority="624" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",J32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="316" priority="622" operator="containsText" text="Reduced">
+    <cfRule type="containsText" dxfId="317" priority="622" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",J32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="315" priority="623" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="316" priority="623" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",J32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="315" priority="624" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",J32)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="314" priority="625" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",J32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J92:O92">
-    <cfRule type="containsText" dxfId="313" priority="469" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",J92)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="312" priority="466" operator="containsText" text="Reduced">
+    <cfRule type="containsText" dxfId="313" priority="466" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",J92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="311" priority="467" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="312" priority="467" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",J92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="310" priority="468" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="311" priority="468" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",J92)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="310" priority="469" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",J92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:AM31">
-    <cfRule type="containsText" dxfId="309" priority="773" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",J31)))</formula>
+    <cfRule type="containsText" dxfId="309" priority="770" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",J31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="308" priority="772" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="308" priority="771" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",J31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="307" priority="772" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",J31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="307" priority="771" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",J31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="770" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",J31)))</formula>
+    <cfRule type="containsText" dxfId="306" priority="773" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",J31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K73:L74">
-    <cfRule type="containsText" dxfId="305" priority="403" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="305" priority="402" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",K73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="304" priority="403" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",K73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="304" priority="404" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="303" priority="404" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",K73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="303" priority="405" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="302" priority="405" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",K73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="302" priority="402" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",K73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75:L75">
-    <cfRule type="containsText" dxfId="301" priority="393" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",K75)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="300" priority="390" operator="containsText" text="Reduced">
+    <cfRule type="containsText" dxfId="301" priority="390" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",K75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="299" priority="391" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="300" priority="391" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",K75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="392" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="299" priority="392" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",K75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="298" priority="393" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",K75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:O52">
@@ -31109,119 +31119,119 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M85:O86">
-    <cfRule type="containsText" dxfId="289" priority="379" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="289" priority="378" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",M85)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="288" priority="379" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",M85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="380" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="287" priority="380" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",M85)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="287" priority="507" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",M85)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="286" priority="381" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",M85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="508" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="285" priority="506" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",M85)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="284" priority="507" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",M85)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="283" priority="508" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",M85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="284" priority="509" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="282" priority="509" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",M85)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="378" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",M85)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="506" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",M85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M89:O89">
-    <cfRule type="containsText" dxfId="281" priority="572" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",M89)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="570" operator="containsText" text="Reduced">
+    <cfRule type="containsText" dxfId="281" priority="570" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",M89)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="571" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="280" priority="571" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",M89)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="279" priority="572" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",M89)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="278" priority="573" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",M89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M91:O92">
-    <cfRule type="containsText" dxfId="277" priority="567" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="277" priority="450" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",M91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="276" priority="451" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",M91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="569" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="275" priority="452" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",M91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="274" priority="453" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",M91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="275" priority="568" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="273" priority="566" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",M91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="272" priority="567" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",M91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="271" priority="568" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",M91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="450" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",M91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="451" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",M91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="272" priority="452" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",M91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="453" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="270" priority="569" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",M91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="566" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",M91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M91:AD92">
-    <cfRule type="containsText" dxfId="269" priority="248" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="269" priority="246" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",M91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="268" priority="247" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",M91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="267" priority="248" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",M91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="249" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="266" priority="249" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",M91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="247" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",M91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="266" priority="246" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",M91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:BZ14 CJ14 CJ16:CJ19">
-    <cfRule type="containsText" dxfId="265" priority="760" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",M14)))</formula>
+    <cfRule type="containsText" dxfId="265" priority="758" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",M14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="264" priority="759" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",M14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="263" priority="758" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",M14)))</formula>
+    <cfRule type="containsText" dxfId="263" priority="760" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",M14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="262" priority="761" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",M14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34:BZ34 CJ34 CJ36:CJ39">
-    <cfRule type="containsText" dxfId="261" priority="128" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",M34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="260" priority="125" operator="containsText" text="Reduced">
+    <cfRule type="containsText" dxfId="261" priority="125" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",M34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="259" priority="126" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="260" priority="126" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",M34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="127" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="259" priority="127" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",M34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="258" priority="128" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",M34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:BB13 P13:BZ20 CJ13:CJ21">
-    <cfRule type="containsText" dxfId="257" priority="729" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="257" priority="728" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",N13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="256" priority="729" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",N13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="728" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",N13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:U32 P51:U52">
@@ -31244,92 +31254,92 @@
     <cfRule type="containsText" dxfId="251" priority="462" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",P91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="465" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",P91)))</formula>
+    <cfRule type="containsText" dxfId="250" priority="463" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",P91)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="249" priority="464" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",P91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="248" priority="463" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",P91)))</formula>
+    <cfRule type="containsText" dxfId="248" priority="465" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",P91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P92:AD92">
-    <cfRule type="containsText" dxfId="247" priority="244" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="247" priority="242" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",P92)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="246" priority="243" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",P92)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="245" priority="244" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",P92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="245" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="244" priority="245" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",P92)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="245" priority="243" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",P92)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="242" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",P92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:BZ20 CJ13:CJ21 N13:BB13">
-    <cfRule type="containsText" dxfId="243" priority="727" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="243" priority="726" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",N13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="242" priority="727" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",N13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="726" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",N13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:BZ30 CJ22:CJ30">
     <cfRule type="containsText" dxfId="241" priority="642" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",P22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="645" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",P22)))</formula>
+    <cfRule type="containsText" dxfId="240" priority="643" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",P22)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="239" priority="644" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",P22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="643" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",P22)))</formula>
+    <cfRule type="containsText" dxfId="238" priority="645" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",P22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23:BZ30 CJ23:CJ31">
-    <cfRule type="containsText" dxfId="237" priority="717" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",P23)))</formula>
+    <cfRule type="containsText" dxfId="237" priority="714" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",P23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="716" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="236" priority="715" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",P23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="235" priority="716" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",P23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="715" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",P23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="714" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",P23)))</formula>
+    <cfRule type="containsText" dxfId="234" priority="717" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",P23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P42:BZ50 CJ42:CJ50">
-    <cfRule type="containsText" dxfId="233" priority="18" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="233" priority="17" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",P42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="232" priority="18" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",P42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="17" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",P42)))</formula>
+    <cfRule type="containsText" dxfId="231" priority="19" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",P42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="20" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="230" priority="20" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",P42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="19" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",P42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P43:BZ50 CJ43:CJ52">
-    <cfRule type="containsText" dxfId="229" priority="91" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="229" priority="89" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",P43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="228" priority="90" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",P43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="227" priority="91" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",P43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="92" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="226" priority="92" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",P43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="227" priority="89" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",P43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="90" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",P43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:AA31 T32:AM32 T51:AA51 T52:AM52 AK51:AM51 AK31:AM31">
@@ -31341,63 +31351,63 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:AA31 AK31:AM31 T32:AM32 T51:AA51 AK51:AM51 T52:AM52">
-    <cfRule type="containsText" dxfId="223" priority="633" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="223" priority="632" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",T31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="222" priority="633" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",T31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="632" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",T31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V91:X91">
-    <cfRule type="containsText" dxfId="221" priority="370" operator="containsText" text="Reduced">
+    <cfRule type="containsText" dxfId="221" priority="366" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",V91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="368" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="220" priority="367" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",V91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="219" priority="368" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",V91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="369" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="218" priority="369" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",V91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="371" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="217" priority="370" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",V91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="216" priority="371" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",V91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="366" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",V91)))</formula>
+    <cfRule type="containsText" dxfId="215" priority="372" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",V91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="373" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="214" priority="373" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",V91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="367" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",V91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="372" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",V91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE91:AE92">
-    <cfRule type="containsText" dxfId="213" priority="356" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",AE91)))</formula>
+    <cfRule type="containsText" dxfId="213" priority="354" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",AE91)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="212" priority="355" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",AE91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="354" operator="containsText" text="Reduced">
+    <cfRule type="containsText" dxfId="211" priority="356" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",AE91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="210" priority="357" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",AE91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="209" priority="358" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",AE91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="360" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="208" priority="359" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",AE91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="207" priority="360" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",AE91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="361" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="206" priority="361" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",AE91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="357" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",AE91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="359" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",AE91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="358" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",AE91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE91:AF92">
@@ -31407,11 +31417,11 @@
     <cfRule type="containsText" dxfId="204" priority="347" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",AE91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="349" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="203" priority="348" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",AE91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="202" priority="349" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",AE91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="348" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",AE91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE91:AG92">
@@ -31421,11 +31431,11 @@
     <cfRule type="containsText" dxfId="200" priority="491" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",AE91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="493" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="199" priority="492" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",AE91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="198" priority="493" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",AE91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="492" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",AE91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF91:AF92">
@@ -31435,141 +31445,141 @@
     <cfRule type="containsText" dxfId="196" priority="343" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",AF91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="345" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="195" priority="344" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",AF91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="194" priority="345" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",AF91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="344" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",AF91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF91:AG92">
-    <cfRule type="containsText" dxfId="193" priority="337" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",AF91)))</formula>
+    <cfRule type="containsText" dxfId="193" priority="334" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",AF91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="336" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="192" priority="335" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",AF91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="191" priority="336" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",AF91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="335" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",AF91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="334" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",AF91)))</formula>
+    <cfRule type="containsText" dxfId="190" priority="337" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",AF91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG91:AG92">
-    <cfRule type="containsText" dxfId="189" priority="333" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",AG91)))</formula>
+    <cfRule type="containsText" dxfId="189" priority="330" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",AG91)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="188" priority="331" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",AG91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="330" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",AG91)))</formula>
+    <cfRule type="containsText" dxfId="187" priority="332" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",AG91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="332" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",AG91)))</formula>
+    <cfRule type="containsText" dxfId="186" priority="333" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",AG91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG91:AJ92">
-    <cfRule type="containsText" dxfId="185" priority="256" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="185" priority="254" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",AG91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="184" priority="255" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",AG91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="183" priority="256" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",AG91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="254" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",AG91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="257" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="182" priority="257" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",AG91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="255" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",AG91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH91:AJ91">
-    <cfRule type="containsText" dxfId="181" priority="461" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",AH91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="458" operator="containsText" text="Reduced">
+    <cfRule type="containsText" dxfId="181" priority="458" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",AH91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="459" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="180" priority="459" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",AH91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="460" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="179" priority="460" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",AH91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="461" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",AH91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH92:AJ92">
-    <cfRule type="containsText" dxfId="177" priority="251" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="177" priority="250" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",AH92)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="176" priority="251" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",AH92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="250" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",AH92)))</formula>
+    <cfRule type="containsText" dxfId="175" priority="252" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",AH92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="253" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="174" priority="253" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",AH92)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="252" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",AH92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK91:AV92">
     <cfRule type="containsText" dxfId="173" priority="318" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",AK91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="324" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="172" priority="319" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",AK91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="171" priority="320" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",AK91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="323" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="170" priority="321" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",AK91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="169" priority="322" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",AK91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="168" priority="323" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",AK91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="322" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",AK91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="325" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",AK91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="321" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",AK91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="320" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="167" priority="324" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",AK91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="319" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",AK91)))</formula>
+    <cfRule type="containsText" dxfId="166" priority="325" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",AK91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK91:AY92">
-    <cfRule type="containsText" dxfId="165" priority="470" operator="containsText" text="Reduced">
+    <cfRule type="containsText" dxfId="165" priority="310" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",AK91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="471" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="164" priority="311" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",AK91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="472" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="163" priority="312" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",AK91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="473" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="162" priority="313" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",AK91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="312" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="161" priority="470" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",AK91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="160" priority="471" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",AK91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="159" priority="472" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",AK91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="310" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",AK91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="313" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="158" priority="473" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",AK91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="311" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",AK91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN51:AV52 AN31:BZ32">
-    <cfRule type="containsText" dxfId="157" priority="635" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="157" priority="634" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",AN31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="156" priority="635" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",AN31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="634" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",AN31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN31:BZ32 AN51:AV52">
@@ -31587,22 +31597,22 @@
     <cfRule type="containsText" dxfId="152" priority="767" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",AQ31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="769" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="151" priority="768" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",AQ31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="769" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",AQ31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="768" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",AQ31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ51:AS51">
-    <cfRule type="containsText" dxfId="149" priority="135" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",AQ51)))</formula>
+    <cfRule type="containsText" dxfId="149" priority="133" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",AQ51)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="148" priority="134" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",AQ51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="133" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",AQ51)))</formula>
+    <cfRule type="containsText" dxfId="147" priority="135" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",AQ51)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="146" priority="136" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",AQ51)))</formula>
@@ -31612,33 +31622,33 @@
     <cfRule type="containsText" dxfId="145" priority="306" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",AW91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="309" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",AW91)))</formula>
+    <cfRule type="containsText" dxfId="144" priority="307" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",AW91)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="143" priority="308" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",AW91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="307" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",AW91)))</formula>
+    <cfRule type="containsText" dxfId="142" priority="309" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",AW91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW51:BZ52">
-    <cfRule type="containsText" dxfId="141" priority="130" operator="containsText" text="All">
+    <cfRule type="containsText" dxfId="141" priority="129" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",AW51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="140" priority="130" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",AW51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="131" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="139" priority="131" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",AW51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="132" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="138" priority="132" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",AW51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="129" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",AW51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW91:BZ92 CJ91:CJ92">
-    <cfRule type="containsText" dxfId="137" priority="265" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",AW91)))</formula>
+    <cfRule type="containsText" dxfId="137" priority="262" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",AW91)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="136" priority="263" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",AW91)))</formula>
@@ -31646,47 +31656,47 @@
     <cfRule type="containsText" dxfId="135" priority="264" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",AW91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="262" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",AW91)))</formula>
+    <cfRule type="containsText" dxfId="134" priority="265" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",AW91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ21:BZ21">
-    <cfRule type="containsText" dxfId="133" priority="785" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",AZ21)))</formula>
+    <cfRule type="containsText" dxfId="133" priority="782" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",AZ21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="784" operator="containsText" text="&lt;50 events">
+    <cfRule type="containsText" dxfId="132" priority="783" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",AZ21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="131" priority="784" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",AZ21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="783" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",AZ21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="782" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",AZ21)))</formula>
+    <cfRule type="containsText" dxfId="130" priority="785" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",AZ21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ41:BZ41">
     <cfRule type="containsText" dxfId="129" priority="145" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",AZ41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="148" operator="containsText" text="Failure">
-      <formula>NOT(ISERROR(SEARCH("Failure",AZ41)))</formula>
+    <cfRule type="containsText" dxfId="128" priority="146" operator="containsText" text="All">
+      <formula>NOT(ISERROR(SEARCH("All",AZ41)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="127" priority="147" operator="containsText" text="&lt;50 events">
       <formula>NOT(ISERROR(SEARCH("&lt;50 events",AZ41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="146" operator="containsText" text="All">
-      <formula>NOT(ISERROR(SEARCH("All",AZ41)))</formula>
+    <cfRule type="containsText" dxfId="126" priority="148" operator="containsText" text="Failure">
+      <formula>NOT(ISERROR(SEARCH("Failure",AZ41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ92:BZ92 CJ92">
-    <cfRule type="containsText" dxfId="125" priority="260" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",AZ92)))</formula>
+    <cfRule type="containsText" dxfId="125" priority="258" operator="containsText" text="Reduced">
+      <formula>NOT(ISERROR(SEARCH("Reduced",AZ92)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="124" priority="259" operator="containsText" text="All">
       <formula>NOT(ISERROR(SEARCH("All",AZ92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="258" operator="containsText" text="Reduced">
-      <formula>NOT(ISERROR(SEARCH("Reduced",AZ92)))</formula>
+    <cfRule type="containsText" dxfId="123" priority="260" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",AZ92)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="122" priority="261" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",AZ92)))</formula>
@@ -31701,11 +31711,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ32:CJ41 N33:BB33 BC33:BZ40 P34:BB40">
-    <cfRule type="containsText" dxfId="119" priority="100" operator="containsText" text="Failure">
+    <cfRule type="containsText" dxfId="119" priority="99" operator="containsText" text="&lt;50 events">
+      <formula>NOT(ISERROR(SEARCH("&lt;50 events",N32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="100" operator="containsText" text="Failure">
       <formula>NOT(ISERROR(SEARCH("Failure",N32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="99" operator="containsText" text="&lt;50 events">
-      <formula>NOT(ISERROR(SEARCH("&lt;50 events",N32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ32:CJ41 BC33:BZ40 P34:BB40 N33:BB33">
@@ -33386,135 +33396,135 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:W1">
-    <cfRule type="containsText" dxfId="45" priority="42" operator="containsText" text="run">
+    <cfRule type="containsText" dxfId="45" priority="41" operator="containsText" text="Success">
+      <formula>NOT(ISERROR(SEARCH("Success",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="42" operator="containsText" text="run">
       <formula>NOT(ISERROR(SEARCH("run",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="41" operator="containsText" text="Success">
-      <formula>NOT(ISERROR(SEARCH("Success",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:U43">
-    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
-      <formula>"&lt;50 events"</formula>
+    <cfRule type="containsText" dxfId="43" priority="29" operator="containsText" text="Missing column">
+      <formula>NOT(ISERROR(SEARCH("Missing column",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="34" operator="containsText" text="Success">
-      <formula>NOT(ISERROR(SEARCH("Success",D2)))</formula>
+    <cfRule type="containsText" dxfId="42" priority="30" operator="containsText" text="Region missing">
+      <formula>NOT(ISERROR(SEARCH("Region missing",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="33" operator="containsText" text="NEXT">
-      <formula>NOT(ISERROR(SEARCH("NEXT",D2)))</formula>
+    <cfRule type="containsText" dxfId="41" priority="31" operator="containsText" text="Negative vector">
+      <formula>NOT(ISERROR(SEARCH("Negative vector",D2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="40" priority="32" operator="containsText" text="Investigate">
       <formula>NOT(ISERROR(SEARCH("Investigate",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="31" operator="containsText" text="Negative vector">
-      <formula>NOT(ISERROR(SEARCH("Negative vector",D2)))</formula>
+    <cfRule type="containsText" dxfId="39" priority="33" operator="containsText" text="NEXT">
+      <formula>NOT(ISERROR(SEARCH("NEXT",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="30" operator="containsText" text="Region missing">
-      <formula>NOT(ISERROR(SEARCH("Region missing",D2)))</formula>
+    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="Success">
+      <formula>NOT(ISERROR(SEARCH("Success",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="29" operator="containsText" text="Missing column">
-      <formula>NOT(ISERROR(SEARCH("Missing column",D2)))</formula>
+    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
+      <formula>"&lt;50 events"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
       <formula>"Failure"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3">
-    <cfRule type="containsText" dxfId="35" priority="28" operator="containsText" text="run">
-      <formula>NOT(ISERROR(SEARCH("run",G2)))</formula>
+    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="Success, ">
+      <formula>NOT(ISERROR(SEARCH("Success, ",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="27" operator="containsText" text="Success">
+    <cfRule type="containsText" dxfId="34" priority="26" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="Success">
       <formula>NOT(ISERROR(SEARCH("Success",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="26" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="Success, ">
-      <formula>NOT(ISERROR(SEARCH("Success, ",G2)))</formula>
+    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="run">
+      <formula>NOT(ISERROR(SEARCH("run",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G9">
-    <cfRule type="containsText" dxfId="31" priority="24" operator="containsText" text="run">
-      <formula>NOT(ISERROR(SEARCH("run",G8)))</formula>
+    <cfRule type="containsText" dxfId="31" priority="21" operator="containsText" text="Success, ">
+      <formula>NOT(ISERROR(SEARCH("Success, ",G8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="23" operator="containsText" text="Success">
+    <cfRule type="containsText" dxfId="30" priority="22" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",G8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="Success">
       <formula>NOT(ISERROR(SEARCH("Success",G8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="22" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",G8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="21" operator="containsText" text="Success, ">
-      <formula>NOT(ISERROR(SEARCH("Success, ",G8)))</formula>
+    <cfRule type="containsText" dxfId="28" priority="24" operator="containsText" text="run">
+      <formula>NOT(ISERROR(SEARCH("run",G8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G15">
-    <cfRule type="containsText" dxfId="27" priority="19" operator="containsText" text="Success">
+    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="Success, ">
+      <formula>NOT(ISERROR(SEARCH("Success, ",G14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="18" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",G14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="19" operator="containsText" text="Success">
       <formula>NOT(ISERROR(SEARCH("Success",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="20" operator="containsText" text="run">
+    <cfRule type="containsText" dxfId="24" priority="20" operator="containsText" text="run">
       <formula>NOT(ISERROR(SEARCH("run",G14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="Success, ">
-      <formula>NOT(ISERROR(SEARCH("Success, ",G14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="18" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",G14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G21">
-    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Success, ">
+      <formula>NOT(ISERROR(SEARCH("Success, ",G20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",G20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="Success, ">
-      <formula>NOT(ISERROR(SEARCH("Success, ",G20)))</formula>
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Success">
+      <formula>NOT(ISERROR(SEARCH("Success",G20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="16" operator="containsText" text="run">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="run">
       <formula>NOT(ISERROR(SEARCH("run",G20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="Success">
-      <formula>NOT(ISERROR(SEARCH("Success",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="run">
-      <formula>NOT(ISERROR(SEARCH("run",G26)))</formula>
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="Success, ">
+      <formula>NOT(ISERROR(SEARCH("Success, ",G26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="Success">
+    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",G26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="Success">
       <formula>NOT(ISERROR(SEARCH("Success",G26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",G26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="Success, ">
-      <formula>NOT(ISERROR(SEARCH("Success, ",G26)))</formula>
+    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="run">
+      <formula>NOT(ISERROR(SEARCH("run",G26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G33">
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="run">
-      <formula>NOT(ISERROR(SEARCH("run",G32)))</formula>
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Success, ">
+      <formula>NOT(ISERROR(SEARCH("Success, ",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Success">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",G32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Success">
       <formula>NOT(ISERROR(SEARCH("Success",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",G32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Success, ">
-      <formula>NOT(ISERROR(SEARCH("Success, ",G32)))</formula>
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="run">
+      <formula>NOT(ISERROR(SEARCH("run",G32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:G39">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="run">
-      <formula>NOT(ISERROR(SEARCH("run",G38)))</formula>
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Success, ">
+      <formula>NOT(ISERROR(SEARCH("Success, ",G38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Success">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",G38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Success">
       <formula>NOT(ISERROR(SEARCH("Success",G38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",G38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Success, ">
-      <formula>NOT(ISERROR(SEARCH("Success, ",G38)))</formula>
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="run">
+      <formula>NOT(ISERROR(SEARCH("run",G38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -39959,83 +39969,86 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C761FD6-E4D5-4DBC-A978-7561902128C1}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="147" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="147" x14ac:dyDescent="0.25">
       <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="159" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="E1" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="F1" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="G1" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="90" t="s">
+      <c r="H1" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="I1" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="J1" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="K1" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="L1" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="90" t="s">
+      <c r="M1" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="90" t="s">
+      <c r="N1" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="90" t="s">
+      <c r="O1" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="90" t="s">
+      <c r="P1" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="90" t="s">
+      <c r="Q1" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="Q1" s="91" t="s">
+      <c r="R1" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="R1" s="93" t="s">
+      <c r="S1" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="94" t="str">
-        <f>_xlfn.CONCAT(SUM(COUNTIF(C2:Q7,"*success*"))," OF ",COUNTIF(C2:Q7,"&lt;&gt;N/A")," ANALYSES ARE COMPLETE.")</f>
-        <v>22 OF 88 ANALYSES ARE COMPLETE.</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" s="94" t="str">
+        <f>_xlfn.CONCAT(SUM(COUNTIF(D2:R10,"*success*"))," OF ",COUNTIF(D2:R10,"&lt;&gt;N/A")," ANALYSES ARE COMPLETE.")</f>
+        <v>33 OF 132 ANALYSES ARE COMPLETE.</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
         <v>215</v>
       </c>
       <c r="B2" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="97" t="s">
-        <v>90</v>
+      <c r="C2" s="96" t="s">
+        <v>219</v>
       </c>
       <c r="D2" s="97" t="s">
         <v>90</v>
@@ -40043,11 +40056,11 @@
       <c r="E2" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="158" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="98" t="s">
-        <v>192</v>
+      <c r="F2" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="157" t="s">
+        <v>37</v>
       </c>
       <c r="H2" s="98" t="s">
         <v>192</v>
@@ -40076,25 +40089,28 @@
       <c r="P2" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="Q2" s="99" t="s">
-        <v>192</v>
-      </c>
-      <c r="R2" s="101" t="s">
-        <v>192</v>
-      </c>
-      <c r="S2" s="102" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q2" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="R2" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="S2" s="101" t="s">
+        <v>192</v>
+      </c>
+      <c r="T2" s="102" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="96" t="s">
         <v>215</v>
       </c>
       <c r="B3" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="104" t="s">
-        <v>90</v>
+      <c r="C3" s="134" t="s">
+        <v>219</v>
       </c>
       <c r="D3" s="104" t="s">
         <v>90</v>
@@ -40105,8 +40121,8 @@
       <c r="F3" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="98" t="s">
-        <v>192</v>
+      <c r="G3" s="104" t="s">
+        <v>90</v>
       </c>
       <c r="H3" s="98" t="s">
         <v>192</v>
@@ -40135,25 +40151,28 @@
       <c r="P3" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="Q3" s="99" t="s">
-        <v>192</v>
-      </c>
-      <c r="R3" s="101" t="s">
-        <v>192</v>
-      </c>
-      <c r="S3" s="105" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="R3" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="S3" s="101" t="s">
+        <v>192</v>
+      </c>
+      <c r="T3" s="105" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="106" t="s">
         <v>215</v>
       </c>
       <c r="B4" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="108" t="s">
-        <v>90</v>
+      <c r="C4" s="107" t="s">
+        <v>219</v>
       </c>
       <c r="D4" s="108" t="s">
         <v>90</v>
@@ -40164,8 +40183,8 @@
       <c r="F4" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="109" t="s">
-        <v>192</v>
+      <c r="G4" s="108" t="s">
+        <v>90</v>
       </c>
       <c r="H4" s="109" t="s">
         <v>192</v>
@@ -40194,37 +40213,40 @@
       <c r="P4" s="109" t="s">
         <v>192</v>
       </c>
-      <c r="Q4" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="R4" s="111" t="s">
-        <v>192</v>
-      </c>
-      <c r="S4" s="112" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="113" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5" s="80" t="s">
+      <c r="Q4" s="109" t="s">
+        <v>192</v>
+      </c>
+      <c r="R4" s="107" t="s">
+        <v>192</v>
+      </c>
+      <c r="S4" s="111" t="s">
+        <v>192</v>
+      </c>
+      <c r="T4" s="112" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="95" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="98" t="s">
-        <v>192</v>
+      <c r="C5" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="157" t="s">
+        <v>37</v>
       </c>
       <c r="H5" s="98" t="s">
         <v>192</v>
@@ -40253,37 +40275,40 @@
       <c r="P5" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="Q5" s="99" t="s">
-        <v>192</v>
-      </c>
-      <c r="R5" s="101" t="s">
-        <v>192</v>
-      </c>
-      <c r="S5" s="105" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q5" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="R5" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="S5" s="101" t="s">
+        <v>192</v>
+      </c>
+      <c r="T5" s="102" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B6" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="115" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="115" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="115" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="115" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="98" t="s">
-        <v>192</v>
+      <c r="C6" s="134" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="104" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="104" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="104" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="104" t="s">
+        <v>90</v>
       </c>
       <c r="H6" s="98" t="s">
         <v>192</v>
@@ -40312,37 +40337,40 @@
       <c r="P6" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="Q6" s="99" t="s">
-        <v>192</v>
-      </c>
-      <c r="R6" s="101" t="s">
-        <v>192</v>
-      </c>
-      <c r="S6" s="105" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q6" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="R6" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="S6" s="101" t="s">
+        <v>192</v>
+      </c>
+      <c r="T6" s="105" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B7" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="116" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="116" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="116" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="116" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="109" t="s">
-        <v>192</v>
+      <c r="C7" s="107" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="108" t="s">
+        <v>90</v>
       </c>
       <c r="H7" s="109" t="s">
         <v>192</v>
@@ -40371,25 +40399,28 @@
       <c r="P7" s="109" t="s">
         <v>192</v>
       </c>
-      <c r="Q7" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="R7" s="111" t="s">
-        <v>192</v>
-      </c>
-      <c r="S7" s="112" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
-        <v>217</v>
+      <c r="Q7" s="109" t="s">
+        <v>192</v>
+      </c>
+      <c r="R7" s="107" t="s">
+        <v>192</v>
+      </c>
+      <c r="S7" s="111" t="s">
+        <v>192</v>
+      </c>
+      <c r="T7" s="112" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="113" t="s">
+        <v>216</v>
       </c>
       <c r="B8" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="114" t="s">
-        <v>90</v>
+      <c r="C8" s="80" t="s">
+        <v>219</v>
       </c>
       <c r="D8" s="114" t="s">
         <v>90</v>
@@ -40398,100 +40429,295 @@
         <v>90</v>
       </c>
       <c r="F8" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="113" t="s">
-        <v>192</v>
-      </c>
-      <c r="H8" s="113" t="s">
-        <v>192</v>
-      </c>
-      <c r="I8" s="113" t="s">
-        <v>192</v>
-      </c>
-      <c r="J8" s="113" t="s">
-        <v>192</v>
-      </c>
-      <c r="K8" s="113" t="s">
-        <v>192</v>
-      </c>
-      <c r="L8" s="113" t="s">
-        <v>192</v>
-      </c>
-      <c r="M8" s="113" t="s">
-        <v>192</v>
-      </c>
-      <c r="N8" s="113" t="s">
-        <v>192</v>
-      </c>
-      <c r="O8" s="113" t="s">
-        <v>192</v>
-      </c>
-      <c r="P8" s="113" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q8" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="R8" s="123" t="s">
-        <v>192</v>
-      </c>
-      <c r="S8" s="130" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="I8" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="J8" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="K8" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="L8" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="M8" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="N8" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="O8" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="P8" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q8" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="R8" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="S8" s="101" t="s">
+        <v>192</v>
+      </c>
+      <c r="T8" s="105" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="125" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="I9" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="J9" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="K9" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="L9" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="M9" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="N9" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="O9" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="P9" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q9" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="R9" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="S9" s="101" t="s">
+        <v>192</v>
+      </c>
+      <c r="T9" s="105" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="106" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="107" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="109" t="s">
+        <v>192</v>
+      </c>
+      <c r="I10" s="109" t="s">
+        <v>192</v>
+      </c>
+      <c r="J10" s="109" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10" s="109" t="s">
+        <v>192</v>
+      </c>
+      <c r="L10" s="109" t="s">
+        <v>192</v>
+      </c>
+      <c r="M10" s="109" t="s">
+        <v>192</v>
+      </c>
+      <c r="N10" s="109" t="s">
+        <v>192</v>
+      </c>
+      <c r="O10" s="109" t="s">
+        <v>192</v>
+      </c>
+      <c r="P10" s="109" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q10" s="109" t="s">
+        <v>192</v>
+      </c>
+      <c r="R10" s="107" t="s">
+        <v>192</v>
+      </c>
+      <c r="S10" s="111" t="s">
+        <v>192</v>
+      </c>
+      <c r="T10" s="112" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="127" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B11" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="113" t="s">
+        <v>192</v>
+      </c>
+      <c r="I11" s="113" t="s">
+        <v>192</v>
+      </c>
+      <c r="J11" s="113" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="113" t="s">
+        <v>192</v>
+      </c>
+      <c r="L11" s="113" t="s">
+        <v>192</v>
+      </c>
+      <c r="M11" s="113" t="s">
+        <v>192</v>
+      </c>
+      <c r="N11" s="113" t="s">
+        <v>192</v>
+      </c>
+      <c r="O11" s="113" t="s">
+        <v>192</v>
+      </c>
+      <c r="P11" s="113" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q11" s="113" t="s">
+        <v>192</v>
+      </c>
+      <c r="R11" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="S11" s="123" t="s">
+        <v>192</v>
+      </c>
+      <c r="T11" s="130" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="113" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="115" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="115" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="115" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="115" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="153" t="s">
+      <c r="C12" s="80" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="115" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="153" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="154" t="s">
+      <c r="B13" s="154" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="155" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="155" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="155" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="155" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="156"/>
-      <c r="O10" s="156"/>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="156"/>
-      <c r="R10" s="156"/>
-      <c r="S10" s="156"/>
+      <c r="C13" s="154" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="155" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="155" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="155" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="155" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="156"/>
+      <c r="M13" s="156"/>
+      <c r="N13" s="156"/>
+      <c r="O13" s="156"/>
+      <c r="P13" s="156"/>
+      <c r="Q13" s="156"/>
+      <c r="R13" s="156"/>
+      <c r="S13" s="156"/>
+      <c r="T13" s="156"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58636,33 +58862,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1b7bea62-e9ad-4fa0-ac9f-b5ebe0339f74">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="eab82d84-ea81-41ff-842d-bcd972d8148a">
-      <UserInfo>
-        <DisplayName>Jose Cuitun Coronado</DisplayName>
-        <AccountId>56</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009BD13D57D0A1744AB6DFA9D81D606D5D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad6cf594e6b298ec24fa046525a28969">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1b7bea62-e9ad-4fa0-ac9f-b5ebe0339f74" xmlns:ns3="eab82d84-ea81-41ff-842d-bcd972d8148a" xmlns:ns4="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67a3de9cab7499decadb5b3b6813136e" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="1b7bea62-e9ad-4fa0-ac9f-b5ebe0339f74"/>
@@ -58904,10 +59103,49 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1b7bea62-e9ad-4fa0-ac9f-b5ebe0339f74">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="eab82d84-ea81-41ff-842d-bcd972d8148a">
+      <UserInfo>
+        <DisplayName>Jose Cuitun Coronado</DisplayName>
+        <AccountId>56</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27EB6872-6E34-4214-B9EC-A178F70D1E66}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC9C9C9B-668F-4363-9B25-C8F26CC4A459}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1b7bea62-e9ad-4fa0-ac9f-b5ebe0339f74"/>
+    <ds:schemaRef ds:uri="eab82d84-ea81-41ff-842d-bcd972d8148a"/>
+    <ds:schemaRef ds:uri="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -58925,21 +59163,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC9C9C9B-668F-4363-9B25-C8F26CC4A459}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27EB6872-6E34-4214-B9EC-A178F70D1E66}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1b7bea62-e9ad-4fa0-ac9f-b5ebe0339f74"/>
-    <ds:schemaRef ds:uri="eab82d84-ea81-41ff-842d-bcd972d8148a"/>
-    <ds:schemaRef ds:uri="edb9d0e4-5370-4cfb-9e4e-bdf6de379f60"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>